--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ForTheWinPSZ-Calc\06.Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Documents\github\ForTheWinPSZ-Calc\06.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0961EB-5BB2-44B6-8CDD-91F9CC087875}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="6530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -373,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科学技术法的存储与计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙浩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,12 +402,16 @@
   </si>
   <si>
     <t>科学计数法计算.txt</t>
+  </si>
+  <si>
+    <t>科学计数法的存储与计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -735,47 +731,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -786,115 +845,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1214,895 +1210,949 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="21.08203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="36" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="49" t="s">
+      <c r="P9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="50"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="42"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="32" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="51"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="13" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="33" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="54" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="55"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="52" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="55"/>
-    </row>
-    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="33" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="57"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="58" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="33" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="39" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26" t="s">
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="40" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="40" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="37"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="59"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="39" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="34"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="37" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="34"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="37" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="34" t="s">
+      <c r="P23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="34"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="37" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="37" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="P25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="35" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="42" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="31" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="13" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>27</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="13" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
+      <c r="O29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="P29" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="P29" s="66" t="s">
-        <v>89</v>
-      </c>
       <c r="Q29" s="66"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>28</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J13:M14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="D24:E30"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:Q14"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D19"/>
@@ -2127,77 +2177,23 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="D24:E30"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P29:Q29" r:id="rId1" display="科学计数法计算.txt"/>
+    <hyperlink ref="P29:Q29" r:id="rId1" display="科学计数法计算.txt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改double为decimal变量，添加四舍五入方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加判定条件，修改数字定义逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 键盘绑定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 计算精度的显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科学技术法的存储与计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙浩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,22 +389,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以string方式存储，并单独写一个单目与双目的科学运算类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科学计数法计算.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 计算精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用string类型存储值，手动实现加减乘除算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学计数法的计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以string方式存储，并写一个单目与双目的科学运算类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +507,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -654,24 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,65 +710,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -786,119 +842,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q31"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:Q29"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="98" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,882 +1226,957 @@
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="38"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>74</v>
+      <c r="D4" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="34"/>
+      <c r="P6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="8" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="8" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="50"/>
+      <c r="P9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="13" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="55"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="52" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="57"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="58" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="63"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="8" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="25"/>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="8" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="D21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="8" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="34"/>
+      <c r="O22" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="9" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="34"/>
+      <c r="P23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="8" t="s">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="34"/>
+      <c r="P24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="9" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="34"/>
+      <c r="P25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="7" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="13" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="67">
         <v>27</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="11" t="s">
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="67">
+        <v>28</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="P29" s="66" t="s">
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Q29" s="66"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
-        <v>28</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13" t="s">
+      <c r="P31" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="Q31" s="62"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J13:M14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J18:M18"/>
+  <mergeCells count="103">
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D24:E31"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C4:C20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:Q14"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D19"/>
@@ -2127,77 +2201,23 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="N13:N14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C4:C20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J18:M18"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="D24:E30"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P29:Q29" r:id="rId1" display="科学计数法计算.txt"/>
+    <hyperlink ref="P31:Q31" r:id="rId1" display="科学计数法计算.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Documents\github\ForTheWinPSZ-Calc\06.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799057F-2395-4EB1-B66B-0B32A27120D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2559F2-F947-41D7-A860-9A5D379F00B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="6530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,12 +481,16 @@
     <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +528,6 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -753,11 +749,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,13 +772,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,220 +790,214 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:Q33"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="86" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1342,970 +1332,1000 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="34" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="34"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="35" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="51"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="68" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="40" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="51"/>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="51"/>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="32" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="2" t="s">
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="56"/>
+      <c r="Q10" s="59"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="24"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="26" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="23" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="2" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="70" t="s">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="45" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="48"/>
+      <c r="P14" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="29" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="35" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="80" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83" t="s">
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="83" t="s">
+      <c r="O16" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>13</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="60" t="s">
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
+      <c r="P17" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29" t="s">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="79"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>15</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="68" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="33"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="11" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>16</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="38" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="40" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>17</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="41" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="33"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="P21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="67"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>18</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>19</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="30"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>20</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="52"/>
+      <c r="F24" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="40" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="33" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="30"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="30" t="s">
+      <c r="P26" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="30"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="33" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29" t="s">
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="30"/>
+      <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="31" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32" t="s">
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="20" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="22"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="4" t="s">
         <v>62</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>26</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="23" t="s">
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>27</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
       <c r="N31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="O31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>28</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="22" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23" t="s">
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="9" t="s">
         <v>64</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>29</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="22" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="15" t="s">
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="P33" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q33" s="25"/>
+      <c r="Q33" s="75"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="M34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D22"/>
+  <mergeCells count="112">
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="D26:E33"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D24:E25"/>
@@ -2330,64 +2350,41 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D22"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="D26:E33"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Documents\github\ForTheWinPSZ-Calc\06.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2559F2-F947-41D7-A860-9A5D379F00B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CBE38-7875-4D00-A3B0-19AE0FFAA6B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="6530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="106">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 鼠标点击后背景模糊半透明状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 鼠标悬浮按钮变色和边界特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,61 +424,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>潘明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 鼠标悬浮按钮变色和</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设置自定义滚动条样式</t>
+      <t>边界特效</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点击历史记录或内存的一项，该项字体变小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
+    <t xml:space="preserve"> 设置自定义滚动条样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 点击历史记录或内存的一项，该项字体变小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +575,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -753,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,197 +839,191 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1332,976 +1357,1006 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="P3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="70"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="65"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="46" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="48"/>
+      <c r="P9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="49"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
       <c r="N11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="52"/>
+        <v>60</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+      <c r="F13" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
       <c r="N13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="48"/>
+        <v>15</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="62" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="66" t="s">
+      <c r="P14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="67"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="69"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="17" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="30" t="s">
+      <c r="O16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="76" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="76" t="s">
+      <c r="O17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="59"/>
+      <c r="P17" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="49"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="79"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>15</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="35" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
+        <v>97</v>
+      </c>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>16</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="29"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>17</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="50"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>18</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>19</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="48" t="s">
+      <c r="P23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="48"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>20</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="56" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="48" t="s">
+      <c r="P25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="48"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="48" t="s">
+      <c r="P26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="48"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="48" t="s">
+      <c r="P27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="48"/>
+      <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>26</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>27</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="72" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73" t="s">
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>28</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>29</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
       <c r="N33" s="13" t="s">
         <v>12</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" s="75"/>
+        <v>72</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="D26:E33"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
+  <mergeCells count="111">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
@@ -2326,65 +2381,40 @@
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="D26:E33"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
     <mergeCell ref="J14:M15"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D22"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只用string类型存储值，手动实现加减乘除算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,6 +409,10 @@
   </si>
   <si>
     <t>以string方式存储，并写一个单目与双目的科学运算类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用string类型存储值，手动实现加减乘除算法，精度范围暂定32位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,56 +728,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -785,15 +815,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,101 +851,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q32"/>
+  <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="98" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="98" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,142 +1228,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="56" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="56"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="49" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1382,342 +1379,342 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="55"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="27" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="44" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="51"/>
+      <c r="Q11" s="57"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="37" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="45" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="26" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="20" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="52" t="s">
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="46"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="26" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="25"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="37" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="12" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="26" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="63"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="57" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="47" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="29" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="31"/>
       <c r="N18" s="7" t="s">
         <v>10</v>
@@ -1725,58 +1722,58 @@
       <c r="O18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="67"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="57" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="7" t="s">
         <v>11</v>
       </c>
@@ -1792,85 +1789,89 @@
       <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="47" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
-        <v>19</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="O22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="28" t="s">
@@ -1880,29 +1881,27 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
-        <v>22</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="28" t="s">
@@ -1912,232 +1911,227 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
-        <v>23</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="O25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
-        <v>24</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
-        <v>25</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
-        <v>26</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="19"/>
+      <c r="B28" s="13">
+        <v>27</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="67">
-        <v>27</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
+      <c r="B29" s="13">
+        <v>28</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="O29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="67">
-        <v>28</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q31" s="62"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
+      <c r="M31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="D24:E31"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="J22:M22"/>
+  <mergeCells count="100">
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E19"/>
     <mergeCell ref="J23:M23"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:Q14"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
@@ -2162,62 +2156,34 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E30"/>
+    <mergeCell ref="C21:C30"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J13:M14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P31:Q31" r:id="rId1" display="科学计数法计算.txt"/>
+    <hyperlink ref="P30:Q30" r:id="rId1" display="科学计数法计算.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Documents\github\ForTheWinPSZ-Calc\06.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799057F-2395-4EB1-B66B-0B32A27120D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CBE38-7875-4D00-A3B0-19AE0FFAA6B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="6530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="106">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 鼠标点击后背景模糊半透明状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 鼠标悬浮按钮变色和边界特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,57 +424,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>潘明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 鼠标悬浮按钮变色和</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设置自定义滚动条样式</t>
+      <t>边界特效</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点击历史记录或内存的一项，该项字体变小</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
+    <t xml:space="preserve"> 设置自定义滚动条样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 点击历史记录或内存的一项，该项字体变小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +527,6 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -580,6 +575,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -753,11 +780,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,13 +803,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,221 +821,209 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1327,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:Q33"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1342,947 +1357,953 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="34" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="34"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="35" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="30"/>
+      <c r="P7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="44"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="32" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="2" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="56"/>
+      <c r="Q10" s="49"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
       <c r="N11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="35" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="2" t="s">
+      <c r="F13" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="O13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="45" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="48"/>
+      <c r="P14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="35" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="80" t="s">
+      <c r="O16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83" t="s">
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>13</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="49"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>14</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>15</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="83" t="s">
+      <c r="O19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="P19" s="61"/>
+      <c r="Q19" s="62"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>16</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29" t="s">
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="65"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>15</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>16</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>17</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="33"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="P21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="67"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>18</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="22"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>19</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="30"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>20</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="22"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="30"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="30" t="s">
+      <c r="P26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="30"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="30"/>
+      <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
       <c r="N28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>26</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="23" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
       <c r="N30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>27</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="12">
+        <v>28</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
+        <v>29</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
-        <v>28</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="9" t="s">
+      <c r="P33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="14">
-        <v>29</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" s="25"/>
+      <c r="Q33" s="23"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="M34" s="14"/>
+      <c r="O34" s="14"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:Q5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E16:E22"/>
     <mergeCell ref="F16:I16"/>
@@ -2293,19 +2314,25 @@
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D24:E25"/>
@@ -2330,11 +2357,6 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
@@ -2368,6 +2390,21 @@
     <mergeCell ref="C24:C33"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:M30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="P25:Q25"/>
@@ -2377,17 +2414,7 @@
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P29:Q29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/06.Other/项目存在问题 .xlsx
+++ b/06.Other/项目存在问题 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Documents\github\ForTheWinPSZ-Calc\06.Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CBE38-7875-4D00-A3B0-19AE0FFAA6B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B506C5D7-4567-4D67-B62F-D6283BEA83C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="6530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
   <si>
     <t>计算器项目_存在问题及解决评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 鼠标点击后背景模糊半透明状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 多种情况下的部分操作栏按钮置灰，不可点击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,19 +252,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模糊透明如何解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 内存栏3个按钮（MC，M+，M-的逻辑添加）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,9 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科学计数法计算.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 计算精度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 等于后按取反表达式会有值，再按数字定义会存入历史记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,27 +418,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.5天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 点击MouseDown，MouseUp事件更改字体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潘明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5天</t>
+    <t xml:space="preserve"> 设置自定义滚动条样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 点击历史记录或内存的一项，该项字体变小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加StatusChanged方法，使用DoubleAnimation类添加动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 鼠标点击后背景模糊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毛玻璃状态</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,7 +473,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5" tint="0.39997558519241921"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -477,11 +484,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 设置自定义滚动条样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 点击历史记录或内存的一项，该项字体变小</t>
+    <t>再次回到计算失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛玻璃如何解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根号计算问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 事件触发器 点击MouseDown，MouseUp事件更改字体，背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为资源字典添加点击事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,30 +583,6 @@
       <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5" tint="0.39997558519241921"/>
       <name val="等线"/>
@@ -601,11 +600,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.39997558519241921"/>
-      <name val="等线"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Microsoft YaHei UI Light"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -776,55 +774,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -833,63 +807,135 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,43 +951,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,73 +972,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1357,982 +1312,1024 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="39" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="3" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="39"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="17" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
+      <c r="P4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="27"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="2" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="6" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="6" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="26" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="15" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="6" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="49"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="2" t="s">
+      <c r="F11" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="22"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="2" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="50" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="51"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="15" t="s">
+      <c r="F13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="27"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="33" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="26" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
+        <v>15</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>17</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>18</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="37"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>20</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>21</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+      <c r="O25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26" t="s">
+      <c r="P25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="37"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>22</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="37"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <v>23</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="37"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
+        <v>24</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="37"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <v>25</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="41"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>26</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>27</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>28</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="48" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="49"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
-        <v>14</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26" t="s">
+      <c r="Q32" s="37"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>29</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
-        <v>15</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="75" t="s">
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="62"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
-        <v>16</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <v>17</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <v>18</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
-        <v>19</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="27"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <v>20</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
-        <v>21</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
-        <v>22</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="27"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
-        <v>23</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="27"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
-        <v>24</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
-        <v>25</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
-        <v>26</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
-        <v>27</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
-        <v>28</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
-        <v>29</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="23"/>
+      <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="M34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D22"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D26:E33"/>
+    <mergeCell ref="C24:C33"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D24:E25"/>
@@ -2357,70 +2354,43 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="F14:I14"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="D26:E33"/>
-    <mergeCell ref="C24:C33"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="P33:Q33" r:id="rId1" display="科学计数法计算.txt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>